--- a/Jogos_do_Dia/2023-06-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="111">
   <si>
     <t>League</t>
   </si>
@@ -127,36 +127,36 @@
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
+    <t>Egypt Egyptian Premier League</t>
+  </si>
+  <si>
+    <t>Sweden Allsvenskan</t>
+  </si>
+  <si>
+    <t>Austria Bundesliga</t>
+  </si>
+  <si>
     <t>Sweden Superettan</t>
   </si>
   <si>
-    <t>Egypt Egyptian Premier League</t>
-  </si>
-  <si>
-    <t>Sweden Allsvenskan</t>
-  </si>
-  <si>
-    <t>Austria Bundesliga</t>
-  </si>
-  <si>
     <t>Argentina Prim B Nacional</t>
   </si>
   <si>
     <t>Uruguay Primera División</t>
   </si>
   <si>
+    <t>Bolivia LFPB</t>
+  </si>
+  <si>
+    <t>Brazil Serie A</t>
+  </si>
+  <si>
+    <t>Brazil Serie D</t>
+  </si>
+  <si>
     <t>Brazil Serie C</t>
   </si>
   <si>
-    <t>Brazil Serie D</t>
-  </si>
-  <si>
-    <t>Brazil Serie A</t>
-  </si>
-  <si>
-    <t>Bolivia LFPB</t>
-  </si>
-  <si>
     <t>Ecuador Primera Categoría Serie A</t>
   </si>
   <si>
@@ -196,19 +196,37 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:20:00</t>
+  </si>
+  <si>
     <t>OFK Pirin</t>
   </si>
   <si>
+    <t>Septemvri Sofia</t>
+  </si>
+  <si>
     <t>Hebar 1918</t>
   </si>
   <si>
-    <t>Septemvri Sofia</t>
+    <t>Dundalk</t>
   </si>
   <si>
     <t>Cork City</t>
   </si>
   <si>
-    <t>Dundalk</t>
+    <t>Zamalek</t>
+  </si>
+  <si>
+    <t>Sligo Rovers</t>
+  </si>
+  <si>
+    <t>Varberg</t>
+  </si>
+  <si>
+    <t>Wolfsberger AC</t>
+  </si>
+  <si>
+    <t>Trelleborg</t>
   </si>
   <si>
     <t>Skövde AIK</t>
@@ -217,21 +235,6 @@
     <t>Al Masry</t>
   </si>
   <si>
-    <t>Varberg</t>
-  </si>
-  <si>
-    <t>Trelleborg</t>
-  </si>
-  <si>
-    <t>Zamalek</t>
-  </si>
-  <si>
-    <t>Wolfsberger AC</t>
-  </si>
-  <si>
-    <t>Sligo Rovers</t>
-  </si>
-  <si>
     <t>Malmö FF</t>
   </si>
   <si>
@@ -250,37 +253,55 @@
     <t>Deportivo Maldonado</t>
   </si>
   <si>
+    <t>Guabirá</t>
+  </si>
+  <si>
+    <t>Vasco da Gama</t>
+  </si>
+  <si>
+    <t>Trem</t>
+  </si>
+  <si>
     <t>São Bernardo</t>
   </si>
   <si>
-    <t>Trem</t>
-  </si>
-  <si>
-    <t>Vasco da Gama</t>
-  </si>
-  <si>
-    <t>Guabirá</t>
-  </si>
-  <si>
     <t>Torque</t>
   </si>
   <si>
     <t>Deportivo Cuenca</t>
   </si>
   <si>
+    <t>Racing Córdoba</t>
+  </si>
+  <si>
     <t>Spartak Varna</t>
   </si>
   <si>
+    <t>Botev Vratsa</t>
+  </si>
+  <si>
     <t>Beroe</t>
   </si>
   <si>
-    <t>Botev Vratsa</t>
+    <t>UCD</t>
   </si>
   <si>
     <t>Bohemians</t>
   </si>
   <si>
-    <t>UCD</t>
+    <t>Al Ittihad</t>
+  </si>
+  <si>
+    <t>Shamrock Rovers</t>
+  </si>
+  <si>
+    <t>Häcken</t>
+  </si>
+  <si>
+    <t>Austria Lustenau</t>
+  </si>
+  <si>
+    <t>Brage</t>
   </si>
   <si>
     <t>AFC Eskilstuna</t>
@@ -289,21 +310,6 @@
     <t>Al Ahly</t>
   </si>
   <si>
-    <t>Häcken</t>
-  </si>
-  <si>
-    <t>Brage</t>
-  </si>
-  <si>
-    <t>Al Ittihad</t>
-  </si>
-  <si>
-    <t>Austria Lustenau</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers</t>
-  </si>
-  <si>
     <t>Degerfors</t>
   </si>
   <si>
@@ -322,22 +328,25 @@
     <t>Fénix</t>
   </si>
   <si>
+    <t>Universitario de Vinto</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>Princesa Solimões</t>
+  </si>
+  <si>
     <t>Figueirense</t>
   </si>
   <si>
-    <t>Princesa Solimões</t>
-  </si>
-  <si>
-    <t>Flamengo</t>
-  </si>
-  <si>
-    <t>Universitario de Vinto</t>
-  </si>
-  <si>
     <t>Defensor Sporting</t>
   </si>
   <si>
     <t>Delfin SC</t>
+  </si>
+  <si>
+    <t>Quilmes</t>
   </si>
 </sst>
 </file>
@@ -699,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AI26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -826,10 +835,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -933,73 +942,73 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G3">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.5600000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="X3">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="Y3">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="Z3">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AA3">
-        <v>2.25</v>
+        <v>2.62</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -1040,73 +1049,73 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W4">
-        <v>0.88</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X4">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
       <c r="Y4">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="Z4">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AA4">
-        <v>2.62</v>
+        <v>2.25</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1147,25 +1156,25 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G5">
-        <v>3.6</v>
+        <v>1.23</v>
       </c>
       <c r="H5">
-        <v>3.35</v>
+        <v>5.5</v>
       </c>
       <c r="I5">
-        <v>1.98</v>
+        <v>11</v>
       </c>
       <c r="J5">
         <v>1.04</v>
       </c>
       <c r="K5">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="L5">
         <v>1.25</v>
@@ -1174,10 +1183,10 @@
         <v>3.6</v>
       </c>
       <c r="N5">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="O5">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="P5">
         <v>1.32</v>
@@ -1186,58 +1195,58 @@
         <v>3.1</v>
       </c>
       <c r="R5">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="T5">
-        <v>1.78</v>
+        <v>1.05</v>
       </c>
       <c r="U5">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="V5">
-        <v>1.3</v>
+        <v>3.28</v>
       </c>
       <c r="W5">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="X5">
-        <v>1.89</v>
+        <v>0.11</v>
       </c>
       <c r="Y5">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="Z5">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AA5">
-        <v>2.43</v>
+        <v>2.67</v>
       </c>
       <c r="AB5">
-        <v>2.61</v>
+        <v>1.21</v>
       </c>
       <c r="AC5">
-        <v>9.1</v>
+        <v>11.75</v>
       </c>
       <c r="AD5">
-        <v>1.67</v>
+        <v>5.5</v>
       </c>
       <c r="AE5">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AF5">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AG5">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AH5">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="AI5">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1254,25 +1263,25 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G6">
-        <v>1.32</v>
+        <v>3.75</v>
       </c>
       <c r="H6">
-        <v>4.9</v>
+        <v>3.3</v>
       </c>
       <c r="I6">
-        <v>8.300000000000001</v>
+        <v>1.95</v>
       </c>
       <c r="J6">
         <v>1.04</v>
       </c>
       <c r="K6">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="L6">
         <v>1.25</v>
@@ -1281,10 +1290,10 @@
         <v>3.6</v>
       </c>
       <c r="N6">
-        <v>1.84</v>
+        <v>2.08</v>
       </c>
       <c r="O6">
-        <v>2.02</v>
+        <v>1.68</v>
       </c>
       <c r="P6">
         <v>1.32</v>
@@ -1293,58 +1302,58 @@
         <v>3.1</v>
       </c>
       <c r="R6">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="S6">
-        <v>1.61</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>1.05</v>
+        <v>1.78</v>
       </c>
       <c r="U6">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="V6">
-        <v>3.28</v>
+        <v>1.3</v>
       </c>
       <c r="W6">
+        <v>1.44</v>
+      </c>
+      <c r="X6">
+        <v>1.89</v>
+      </c>
+      <c r="Y6">
+        <v>1.28</v>
+      </c>
+      <c r="Z6">
+        <v>1.15</v>
+      </c>
+      <c r="AA6">
+        <v>2.43</v>
+      </c>
+      <c r="AB6">
+        <v>2.61</v>
+      </c>
+      <c r="AC6">
+        <v>9.1</v>
+      </c>
+      <c r="AD6">
         <v>1.67</v>
       </c>
-      <c r="X6">
-        <v>0.11</v>
-      </c>
-      <c r="Y6">
-        <v>1.57</v>
-      </c>
-      <c r="Z6">
-        <v>1.1</v>
-      </c>
-      <c r="AA6">
-        <v>2.67</v>
-      </c>
-      <c r="AB6">
-        <v>1.21</v>
-      </c>
-      <c r="AC6">
-        <v>11.75</v>
-      </c>
-      <c r="AD6">
-        <v>5.5</v>
-      </c>
       <c r="AE6">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AF6">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AG6">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AH6">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="AI6">
-        <v>3.04</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1358,105 +1367,105 @@
         <v>50</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G7">
-        <v>2.35</v>
+        <v>1.63</v>
       </c>
       <c r="H7">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I7">
-        <v>2.67</v>
+        <v>5.1</v>
       </c>
       <c r="J7">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K7">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L7">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="M7">
-        <v>3.54</v>
+        <v>3.08</v>
       </c>
       <c r="N7">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="O7">
-        <v>2.02</v>
+        <v>1.68</v>
       </c>
       <c r="P7">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="R7">
-        <v>1.65</v>
+        <v>1.92</v>
       </c>
       <c r="S7">
-        <v>2.11</v>
+        <v>1.79</v>
       </c>
       <c r="T7">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="U7">
         <v>1.28</v>
       </c>
       <c r="V7">
-        <v>1.53</v>
+        <v>2.11</v>
       </c>
       <c r="W7">
-        <v>0.5</v>
+        <v>2.14</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="Y7">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="Z7">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AA7">
-        <v>2.99</v>
+        <v>3.06</v>
       </c>
       <c r="AB7">
-        <v>1.79</v>
+        <v>1.5</v>
       </c>
       <c r="AC7">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="AD7">
-        <v>2.28</v>
+        <v>3</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AG7">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="AH7">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="AI7">
-        <v>2.23</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2">
         <v>45082</v>
@@ -1465,105 +1474,105 @@
         <v>50</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W8">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="X8">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Y8">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="Z8">
-        <v>1.94</v>
+        <v>1.6</v>
       </c>
       <c r="AA8">
-        <v>3.52</v>
+        <v>3.08</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2">
         <v>45082</v>
@@ -1575,19 +1584,19 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G9">
-        <v>4.25</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="I9">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="J9">
         <v>1.02</v>
@@ -1602,10 +1611,10 @@
         <v>5.1</v>
       </c>
       <c r="N9">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="O9">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="P9">
         <v>1.27</v>
@@ -1670,7 +1679,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2">
         <v>45082</v>
@@ -1679,105 +1688,105 @@
         <v>50</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G10">
-        <v>2.31</v>
+        <v>1.87</v>
       </c>
       <c r="H10">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I10">
-        <v>2.72</v>
+        <v>3.72</v>
       </c>
       <c r="J10">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>12.75</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>3.83</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.84</v>
+        <v>1.71</v>
       </c>
       <c r="O10">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="P10">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>1.8</v>
+        <v>1.31</v>
       </c>
       <c r="X10">
-        <v>0.8</v>
+        <v>1.34</v>
       </c>
       <c r="Y10">
-        <v>1.62</v>
+        <v>1.12</v>
       </c>
       <c r="Z10">
-        <v>1.3</v>
+        <v>0.97</v>
       </c>
       <c r="AA10">
-        <v>2.92</v>
+        <v>2.09</v>
       </c>
       <c r="AB10">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>2.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2">
         <v>45082</v>
@@ -1786,91 +1795,91 @@
         <v>50</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G11">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="H11">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I11">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="J11">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K11">
-        <v>8.199999999999999</v>
+        <v>12.75</v>
       </c>
       <c r="L11">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M11">
-        <v>3.08</v>
+        <v>3.83</v>
       </c>
       <c r="N11">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="O11">
-        <v>1.76</v>
+        <v>1.95</v>
       </c>
       <c r="P11">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="Q11">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="R11">
-        <v>1.92</v>
+        <v>1.68</v>
       </c>
       <c r="S11">
-        <v>1.79</v>
+        <v>2.15</v>
       </c>
       <c r="T11">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="U11">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="V11">
-        <v>2.11</v>
+        <v>1.58</v>
       </c>
       <c r="W11">
-        <v>2.14</v>
+        <v>1.8</v>
       </c>
       <c r="X11">
-        <v>1.21</v>
+        <v>0.8</v>
       </c>
       <c r="Y11">
         <v>1.62</v>
       </c>
       <c r="Z11">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AA11">
-        <v>3.06</v>
+        <v>2.92</v>
       </c>
       <c r="AB11">
+        <v>1.76</v>
+      </c>
+      <c r="AC11">
+        <v>9.1</v>
+      </c>
+      <c r="AD11">
+        <v>2.34</v>
+      </c>
+      <c r="AE11">
+        <v>1.29</v>
+      </c>
+      <c r="AF11">
         <v>1.5</v>
-      </c>
-      <c r="AC11">
-        <v>9.5</v>
-      </c>
-      <c r="AD11">
-        <v>3</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>1.35</v>
       </c>
       <c r="AG11">
         <v>1.68</v>
@@ -1893,105 +1902,105 @@
         <v>50</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G12">
+        <v>2.55</v>
+      </c>
+      <c r="H12">
+        <v>3.3</v>
+      </c>
+      <c r="I12">
+        <v>2.55</v>
+      </c>
+      <c r="J12">
+        <v>1.01</v>
+      </c>
+      <c r="K12">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="L12">
+        <v>1.24</v>
+      </c>
+      <c r="M12">
+        <v>3.54</v>
+      </c>
+      <c r="N12">
+        <v>1.81</v>
+      </c>
+      <c r="O12">
         <v>2</v>
       </c>
-      <c r="H12">
-        <v>3.35</v>
-      </c>
-      <c r="I12">
-        <v>3.85</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
       <c r="P12">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W12">
-        <v>1.31</v>
+        <v>0.5</v>
       </c>
       <c r="X12">
-        <v>1.34</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>1.12</v>
+        <v>1.52</v>
       </c>
       <c r="Z12">
-        <v>0.97</v>
+        <v>1.47</v>
       </c>
       <c r="AA12">
-        <v>2.09</v>
+        <v>2.99</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2">
         <v>45082</v>
@@ -2000,105 +2009,105 @@
         <v>50</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G13">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="X13">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Y13">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="Z13">
-        <v>1.6</v>
+        <v>1.94</v>
       </c>
       <c r="AA13">
-        <v>3.08</v>
+        <v>3.52</v>
       </c>
       <c r="AB13">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD13">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="AH13">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="AI13">
-        <v>2.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:35">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2">
         <v>45082</v>
@@ -2110,19 +2119,19 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G14">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="H14">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I14">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J14">
         <v>1.01</v>
@@ -2137,10 +2146,10 @@
         <v>6</v>
       </c>
       <c r="N14">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="O14">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="P14">
         <v>1.22</v>
@@ -2188,7 +2197,7 @@
         <v>5.9</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF14">
         <v>1.2</v>
@@ -2217,19 +2226,19 @@
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15">
-        <v>2.13</v>
+        <v>1.85</v>
       </c>
       <c r="H15">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="I15">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="J15">
         <v>1.07</v>
@@ -2244,10 +2253,10 @@
         <v>2.36</v>
       </c>
       <c r="N15">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="O15">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P15">
         <v>1.56</v>
@@ -2307,7 +2316,7 @@
         <v>2.88</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2324,19 +2333,19 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G16">
-        <v>3.05</v>
+        <v>2.62</v>
       </c>
       <c r="H16">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="I16">
-        <v>2.17</v>
+        <v>2.5</v>
       </c>
       <c r="J16">
         <v>1.06</v>
@@ -2351,10 +2360,10 @@
         <v>3.1</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O16">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="P16">
         <v>1.42</v>
@@ -2431,19 +2440,19 @@
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G17">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="H17">
         <v>3.35</v>
       </c>
       <c r="I17">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="J17">
         <v>1.07</v>
@@ -2458,10 +2467,10 @@
         <v>3.1</v>
       </c>
       <c r="N17">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="O17">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P17">
         <v>1.4</v>
@@ -2538,19 +2547,19 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G18">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
       <c r="H18">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="J18">
         <v>1.12</v>
@@ -2565,10 +2574,10 @@
         <v>2.33</v>
       </c>
       <c r="N18">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="O18">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P18">
         <v>1.6</v>
@@ -2645,19 +2654,19 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G19">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I19">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J19">
         <v>1.08</v>
@@ -2672,10 +2681,10 @@
         <v>3</v>
       </c>
       <c r="N19">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="O19">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="P19">
         <v>1.44</v>
@@ -2749,91 +2758,91 @@
         <v>57</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G20">
-        <v>1.5</v>
+        <v>2.16</v>
       </c>
       <c r="H20">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="I20">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="J20">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="K20">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="L20">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="M20">
+        <v>3.3</v>
+      </c>
+      <c r="N20">
+        <v>1.98</v>
+      </c>
+      <c r="O20">
+        <v>1.85</v>
+      </c>
+      <c r="P20">
+        <v>1.38</v>
+      </c>
+      <c r="Q20">
         <v>2.75</v>
       </c>
-      <c r="N20">
-        <v>2.15</v>
-      </c>
-      <c r="O20">
-        <v>1.61</v>
-      </c>
-      <c r="P20">
-        <v>1.51</v>
-      </c>
-      <c r="Q20">
-        <v>2.4</v>
-      </c>
       <c r="R20">
-        <v>2.3</v>
+        <v>1.68</v>
       </c>
       <c r="S20">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="T20">
-        <v>1.08</v>
+        <v>1.32</v>
       </c>
       <c r="U20">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="V20">
-        <v>2.2</v>
+        <v>1.64</v>
       </c>
       <c r="W20">
-        <v>3</v>
+        <v>1.57</v>
       </c>
       <c r="X20">
-        <v>0.5</v>
+        <v>1.57</v>
       </c>
       <c r="Y20">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="Z20">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="AA20">
-        <v>3.06</v>
+        <v>3.14</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG20">
         <v>0</v>
@@ -2856,22 +2865,22 @@
         <v>57</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2886,10 +2895,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2898,10 +2907,10 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -2913,28 +2922,28 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <v>1.5</v>
+        <v>0.33</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>0.79</v>
+        <v>2.09</v>
       </c>
       <c r="Z21">
-        <v>1.07</v>
+        <v>1.71</v>
       </c>
       <c r="AA21">
-        <v>1.86</v>
+        <v>3.8</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -2943,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -2963,22 +2972,22 @@
         <v>57</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H22">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I22">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2993,10 +3002,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O22">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -3005,10 +3014,10 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -3020,28 +3029,28 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>0.33</v>
+        <v>1.5</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>2.09</v>
+        <v>0.79</v>
       </c>
       <c r="Z22">
-        <v>1.71</v>
+        <v>1.07</v>
       </c>
       <c r="AA22">
-        <v>3.8</v>
+        <v>1.86</v>
       </c>
       <c r="AB22">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AE22">
         <v>0</v>
@@ -3050,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AH22">
         <v>0</v>
@@ -3070,76 +3079,76 @@
         <v>57</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="W23">
-        <v>1.57</v>
+        <v>3</v>
       </c>
       <c r="X23">
-        <v>1.57</v>
+        <v>0.5</v>
       </c>
       <c r="Y23">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="Z23">
-        <v>1.54</v>
+        <v>1.25</v>
       </c>
       <c r="AA23">
-        <v>3.14</v>
+        <v>3.06</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -3157,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -3180,19 +3189,19 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G24">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="H24">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I24">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="J24">
         <v>1.06</v>
@@ -3207,10 +3216,10 @@
         <v>3.46</v>
       </c>
       <c r="N24">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P24">
         <v>1.4</v>
@@ -3287,19 +3296,19 @@
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G25">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H25">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I25">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J25">
         <v>1.02</v>
@@ -3314,10 +3323,10 @@
         <v>3.55</v>
       </c>
       <c r="N25">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="O25">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="P25">
         <v>1.4</v>
@@ -3378,6 +3387,113 @@
       </c>
       <c r="AI25">
         <v>4.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45082</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26">
+        <v>2.3</v>
+      </c>
+      <c r="H26">
+        <v>3.1</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>1.09</v>
+      </c>
+      <c r="K26">
+        <v>6.75</v>
+      </c>
+      <c r="L26">
+        <v>1.46</v>
+      </c>
+      <c r="M26">
+        <v>2.5</v>
+      </c>
+      <c r="N26">
+        <v>2.37</v>
+      </c>
+      <c r="O26">
+        <v>1.52</v>
+      </c>
+      <c r="P26">
+        <v>1.54</v>
+      </c>
+      <c r="Q26">
+        <v>2.39</v>
+      </c>
+      <c r="R26">
+        <v>2.06</v>
+      </c>
+      <c r="S26">
+        <v>1.73</v>
+      </c>
+      <c r="T26">
+        <v>1.36</v>
+      </c>
+      <c r="U26">
+        <v>1.34</v>
+      </c>
+      <c r="V26">
+        <v>1.57</v>
+      </c>
+      <c r="W26">
+        <v>1.71</v>
+      </c>
+      <c r="X26">
+        <v>0.71</v>
+      </c>
+      <c r="Y26">
+        <v>1.56</v>
+      </c>
+      <c r="Z26">
+        <v>1.08</v>
+      </c>
+      <c r="AA26">
+        <v>2.64</v>
+      </c>
+      <c r="AB26">
+        <v>1.75</v>
+      </c>
+      <c r="AC26">
+        <v>8.5</v>
+      </c>
+      <c r="AD26">
+        <v>2.47</v>
+      </c>
+      <c r="AE26">
+        <v>1.39</v>
+      </c>
+      <c r="AF26">
+        <v>1.72</v>
+      </c>
+      <c r="AG26">
+        <v>2.2</v>
+      </c>
+      <c r="AH26">
+        <v>2.53</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-06-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
   <si>
     <t>League</t>
   </si>
@@ -127,27 +127,27 @@
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
+    <t>Austria Bundesliga</t>
+  </si>
+  <si>
     <t>Egypt Egyptian Premier League</t>
   </si>
   <si>
     <t>Sweden Allsvenskan</t>
   </si>
   <si>
-    <t>Austria Bundesliga</t>
-  </si>
-  <si>
     <t>Sweden Superettan</t>
   </si>
   <si>
     <t>Argentina Prim B Nacional</t>
   </si>
   <si>
+    <t>Bolivia LFPB</t>
+  </si>
+  <si>
     <t>Uruguay Primera División</t>
   </si>
   <si>
-    <t>Bolivia LFPB</t>
-  </si>
-  <si>
     <t>Brazil Serie A</t>
   </si>
   <si>
@@ -181,6 +181,9 @@
     <t>15:45:00</t>
   </si>
   <si>
+    <t>16:00:00</t>
+  </si>
+  <si>
     <t>17:45:00</t>
   </si>
   <si>
@@ -196,22 +199,28 @@
     <t>21:00:00</t>
   </si>
   <si>
-    <t>21:20:00</t>
+    <t>21:10:00</t>
+  </si>
+  <si>
+    <t>Hebar 1918</t>
+  </si>
+  <si>
+    <t>Septemvri Sofia</t>
   </si>
   <si>
     <t>OFK Pirin</t>
   </si>
   <si>
-    <t>Septemvri Sofia</t>
-  </si>
-  <si>
-    <t>Hebar 1918</t>
+    <t>Cork City</t>
   </si>
   <si>
     <t>Dundalk</t>
   </si>
   <si>
-    <t>Cork City</t>
+    <t>Wolfsberger AC</t>
+  </si>
+  <si>
+    <t>Al Masry</t>
   </si>
   <si>
     <t>Zamalek</t>
@@ -223,18 +232,12 @@
     <t>Varberg</t>
   </si>
   <si>
-    <t>Wolfsberger AC</t>
-  </si>
-  <si>
     <t>Trelleborg</t>
   </si>
   <si>
     <t>Skövde AIK</t>
   </si>
   <si>
-    <t>Al Masry</t>
-  </si>
-  <si>
     <t>Malmö FF</t>
   </si>
   <si>
@@ -247,15 +250,15 @@
     <t>Shelbourne</t>
   </si>
   <si>
+    <t>Guabirá</t>
+  </si>
+  <si>
     <t>Atlanta</t>
   </si>
   <si>
     <t>Deportivo Maldonado</t>
   </si>
   <si>
-    <t>Guabirá</t>
-  </si>
-  <si>
     <t>Vasco da Gama</t>
   </si>
   <si>
@@ -274,19 +277,25 @@
     <t>Racing Córdoba</t>
   </si>
   <si>
+    <t>Beroe</t>
+  </si>
+  <si>
+    <t>Botev Vratsa</t>
+  </si>
+  <si>
     <t>Spartak Varna</t>
   </si>
   <si>
-    <t>Botev Vratsa</t>
-  </si>
-  <si>
-    <t>Beroe</t>
+    <t>Bohemians</t>
   </si>
   <si>
     <t>UCD</t>
   </si>
   <si>
-    <t>Bohemians</t>
+    <t>Austria Lustenau</t>
+  </si>
+  <si>
+    <t>Al Ahly</t>
   </si>
   <si>
     <t>Al Ittihad</t>
@@ -298,18 +307,12 @@
     <t>Häcken</t>
   </si>
   <si>
-    <t>Austria Lustenau</t>
-  </si>
-  <si>
     <t>Brage</t>
   </si>
   <si>
     <t>AFC Eskilstuna</t>
   </si>
   <si>
-    <t>Al Ahly</t>
-  </si>
-  <si>
     <t>Degerfors</t>
   </si>
   <si>
@@ -322,13 +325,13 @@
     <t>Drogheda United</t>
   </si>
   <si>
+    <t>Universitario de Vinto</t>
+  </si>
+  <si>
     <t>Brown de Adrogué</t>
   </si>
   <si>
     <t>Fénix</t>
-  </si>
-  <si>
-    <t>Universitario de Vinto</t>
   </si>
   <si>
     <t>Flamengo</t>
@@ -835,73 +838,73 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W2">
-        <v>1.18</v>
+        <v>0.71</v>
       </c>
       <c r="X2">
-        <v>0.35</v>
+        <v>0.59</v>
       </c>
       <c r="Y2">
-        <v>1.37</v>
+        <v>1.08</v>
       </c>
       <c r="Z2">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AA2">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -942,64 +945,64 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="W3">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="Y3">
         <v>1.42</v>
@@ -1049,73 +1052,73 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G4">
+        <v>1.57</v>
+      </c>
+      <c r="H4">
+        <v>4.04</v>
+      </c>
+      <c r="I4">
+        <v>5.9</v>
+      </c>
+      <c r="J4">
+        <v>1.05</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>1.3</v>
+      </c>
+      <c r="M4">
+        <v>3.32</v>
+      </c>
+      <c r="N4">
         <v>2</v>
       </c>
-      <c r="H4">
-        <v>3.2</v>
-      </c>
-      <c r="I4">
-        <v>3.4</v>
-      </c>
-      <c r="J4">
-        <v>1.07</v>
-      </c>
-      <c r="K4">
-        <v>7.5</v>
-      </c>
-      <c r="L4">
-        <v>1.36</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>2.01</v>
-      </c>
       <c r="O4">
-        <v>1.61</v>
+        <v>1.81</v>
       </c>
       <c r="P4">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="Q4">
         <v>2.75</v>
       </c>
       <c r="R4">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S4">
-        <v>1.91</v>
+        <v>1.69</v>
       </c>
       <c r="T4">
-        <v>1.25</v>
+        <v>1.08</v>
       </c>
       <c r="U4">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="V4">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="W4">
-        <v>0.5600000000000001</v>
+        <v>1.28</v>
       </c>
       <c r="X4">
-        <v>0.63</v>
+        <v>0.33</v>
       </c>
       <c r="Y4">
+        <v>1.37</v>
+      </c>
+      <c r="Z4">
         <v>1.08</v>
       </c>
-      <c r="Z4">
-        <v>1.17</v>
-      </c>
       <c r="AA4">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1156,25 +1159,25 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G5">
-        <v>1.23</v>
+        <v>3.47</v>
       </c>
       <c r="H5">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="I5">
-        <v>11</v>
+        <v>1.9</v>
       </c>
       <c r="J5">
         <v>1.04</v>
       </c>
       <c r="K5">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="L5">
         <v>1.25</v>
@@ -1183,10 +1186,10 @@
         <v>3.6</v>
       </c>
       <c r="N5">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="O5">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="P5">
         <v>1.32</v>
@@ -1195,58 +1198,58 @@
         <v>3.1</v>
       </c>
       <c r="R5">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="S5">
-        <v>1.61</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>1.05</v>
+        <v>1.78</v>
       </c>
       <c r="U5">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="V5">
-        <v>3.28</v>
+        <v>1.3</v>
       </c>
       <c r="W5">
+        <v>1.6</v>
+      </c>
+      <c r="X5">
+        <v>1.7</v>
+      </c>
+      <c r="Y5">
+        <v>1.28</v>
+      </c>
+      <c r="Z5">
+        <v>1.15</v>
+      </c>
+      <c r="AA5">
+        <v>2.43</v>
+      </c>
+      <c r="AB5">
+        <v>2.61</v>
+      </c>
+      <c r="AC5">
+        <v>9.1</v>
+      </c>
+      <c r="AD5">
         <v>1.67</v>
       </c>
-      <c r="X5">
-        <v>0.11</v>
-      </c>
-      <c r="Y5">
-        <v>1.57</v>
-      </c>
-      <c r="Z5">
-        <v>1.1</v>
-      </c>
-      <c r="AA5">
-        <v>2.67</v>
-      </c>
-      <c r="AB5">
-        <v>1.21</v>
-      </c>
-      <c r="AC5">
-        <v>11.75</v>
-      </c>
-      <c r="AD5">
-        <v>5.5</v>
-      </c>
       <c r="AE5">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AF5">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AG5">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AH5">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="AI5">
-        <v>3.04</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1263,25 +1266,25 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G6">
-        <v>3.75</v>
+        <v>1.31</v>
       </c>
       <c r="H6">
-        <v>3.3</v>
+        <v>4.65</v>
       </c>
       <c r="I6">
-        <v>1.95</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J6">
         <v>1.04</v>
       </c>
       <c r="K6">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="L6">
         <v>1.25</v>
@@ -1290,10 +1293,10 @@
         <v>3.6</v>
       </c>
       <c r="N6">
-        <v>2.08</v>
+        <v>1.76</v>
       </c>
       <c r="O6">
-        <v>1.68</v>
+        <v>1.96</v>
       </c>
       <c r="P6">
         <v>1.32</v>
@@ -1302,58 +1305,58 @@
         <v>3.1</v>
       </c>
       <c r="R6">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="T6">
-        <v>1.78</v>
+        <v>1.05</v>
       </c>
       <c r="U6">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="V6">
-        <v>1.3</v>
+        <v>3.28</v>
       </c>
       <c r="W6">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="X6">
-        <v>1.89</v>
+        <v>0.1</v>
       </c>
       <c r="Y6">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="Z6">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AA6">
-        <v>2.43</v>
+        <v>2.67</v>
       </c>
       <c r="AB6">
-        <v>2.61</v>
+        <v>1.21</v>
       </c>
       <c r="AC6">
-        <v>9.1</v>
+        <v>11.75</v>
       </c>
       <c r="AD6">
-        <v>1.67</v>
+        <v>5.5</v>
       </c>
       <c r="AE6">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AF6">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AG6">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AH6">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="AI6">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1367,105 +1370,105 @@
         <v>50</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G7">
-        <v>1.63</v>
+        <v>1.87</v>
       </c>
       <c r="H7">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="I7">
-        <v>5.1</v>
+        <v>3.72</v>
       </c>
       <c r="J7">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>2.04</v>
+        <v>1.71</v>
       </c>
       <c r="O7">
-        <v>1.68</v>
+        <v>2.14</v>
       </c>
       <c r="P7">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>2.14</v>
+        <v>1.27</v>
       </c>
       <c r="X7">
-        <v>1.21</v>
+        <v>1.39</v>
       </c>
       <c r="Y7">
-        <v>1.62</v>
+        <v>1.12</v>
       </c>
       <c r="Z7">
-        <v>1.44</v>
+        <v>0.97</v>
       </c>
       <c r="AA7">
-        <v>3.06</v>
+        <v>2.09</v>
       </c>
       <c r="AB7">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>2.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2">
         <v>45082</v>
@@ -1474,100 +1477,100 @@
         <v>50</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G8">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Y8">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="Z8">
-        <v>1.6</v>
+        <v>1.94</v>
       </c>
       <c r="AA8">
-        <v>3.08</v>
+        <v>3.52</v>
       </c>
       <c r="AB8">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>2.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1581,105 +1584,105 @@
         <v>50</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>1.67</v>
       </c>
       <c r="H9">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="I9">
-        <v>1.36</v>
+        <v>4.8</v>
       </c>
       <c r="J9">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K9">
-        <v>20.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L9">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="M9">
-        <v>5.1</v>
+        <v>3.08</v>
       </c>
       <c r="N9">
+        <v>2.05</v>
+      </c>
+      <c r="O9">
+        <v>1.7</v>
+      </c>
+      <c r="P9">
+        <v>1.43</v>
+      </c>
+      <c r="Q9">
+        <v>2.7</v>
+      </c>
+      <c r="R9">
+        <v>1.92</v>
+      </c>
+      <c r="S9">
+        <v>1.79</v>
+      </c>
+      <c r="T9">
+        <v>1.16</v>
+      </c>
+      <c r="U9">
+        <v>1.28</v>
+      </c>
+      <c r="V9">
+        <v>2.11</v>
+      </c>
+      <c r="W9">
+        <v>2.2</v>
+      </c>
+      <c r="X9">
+        <v>1.13</v>
+      </c>
+      <c r="Y9">
         <v>1.62</v>
       </c>
-      <c r="O9">
-        <v>2.11</v>
-      </c>
-      <c r="P9">
-        <v>1.27</v>
-      </c>
-      <c r="Q9">
-        <v>3.6</v>
-      </c>
-      <c r="R9">
-        <v>1.75</v>
-      </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9">
-        <v>2.8</v>
-      </c>
-      <c r="U9">
-        <v>1.18</v>
-      </c>
-      <c r="V9">
-        <v>1.13</v>
-      </c>
-      <c r="W9">
-        <v>0.6</v>
-      </c>
-      <c r="X9">
-        <v>1.4</v>
-      </c>
-      <c r="Y9">
-        <v>1.11</v>
-      </c>
       <c r="Z9">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AA9">
-        <v>2.77</v>
+        <v>3.06</v>
       </c>
       <c r="AB9">
-        <v>3.66</v>
+        <v>1.5</v>
       </c>
       <c r="AC9">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD9">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="AE9">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AG9">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="AH9">
-        <v>1.81</v>
+        <v>2.06</v>
       </c>
       <c r="AI9">
-        <v>2.28</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2">
         <v>45082</v>
@@ -1688,105 +1691,105 @@
         <v>50</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G10">
-        <v>1.87</v>
+        <v>3.4</v>
       </c>
       <c r="H10">
-        <v>3.9</v>
+        <v>3.32</v>
       </c>
       <c r="I10">
-        <v>3.72</v>
+        <v>1.98</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="N10">
+        <v>1.96</v>
+      </c>
+      <c r="O10">
+        <v>1.76</v>
+      </c>
+      <c r="P10">
+        <v>1.4</v>
+      </c>
+      <c r="Q10">
+        <v>2.7</v>
+      </c>
+      <c r="R10">
+        <v>1.78</v>
+      </c>
+      <c r="S10">
+        <v>1.9</v>
+      </c>
+      <c r="T10">
         <v>1.71</v>
       </c>
-      <c r="O10">
-        <v>2.14</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
       <c r="U10">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W10">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="X10">
-        <v>1.34</v>
+        <v>2.1</v>
       </c>
       <c r="Y10">
-        <v>1.12</v>
+        <v>1.48</v>
       </c>
       <c r="Z10">
-        <v>0.97</v>
+        <v>1.6</v>
       </c>
       <c r="AA10">
-        <v>2.09</v>
+        <v>3.08</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2">
         <v>45082</v>
@@ -1798,97 +1801,97 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G11">
+        <v>4.25</v>
+      </c>
+      <c r="H11">
+        <v>3.6</v>
+      </c>
+      <c r="I11">
+        <v>1.67</v>
+      </c>
+      <c r="J11">
+        <v>1.02</v>
+      </c>
+      <c r="K11">
+        <v>20.5</v>
+      </c>
+      <c r="L11">
+        <v>1.17</v>
+      </c>
+      <c r="M11">
+        <v>5.1</v>
+      </c>
+      <c r="N11">
+        <v>1.61</v>
+      </c>
+      <c r="O11">
         <v>2.15</v>
       </c>
-      <c r="H11">
-        <v>3.1</v>
-      </c>
-      <c r="I11">
-        <v>3.1</v>
-      </c>
-      <c r="J11">
-        <v>1.05</v>
-      </c>
-      <c r="K11">
-        <v>12.75</v>
-      </c>
-      <c r="L11">
+      <c r="P11">
         <v>1.27</v>
       </c>
-      <c r="M11">
-        <v>3.83</v>
-      </c>
-      <c r="N11">
-        <v>1.9</v>
-      </c>
-      <c r="O11">
-        <v>1.95</v>
-      </c>
-      <c r="P11">
-        <v>1.37</v>
-      </c>
       <c r="Q11">
-        <v>2.95</v>
+        <v>3.6</v>
       </c>
       <c r="R11">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="S11">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="T11">
+        <v>2.8</v>
+      </c>
+      <c r="U11">
+        <v>1.18</v>
+      </c>
+      <c r="V11">
+        <v>1.13</v>
+      </c>
+      <c r="W11">
+        <v>0.5</v>
+      </c>
+      <c r="X11">
+        <v>1.67</v>
+      </c>
+      <c r="Y11">
+        <v>1.11</v>
+      </c>
+      <c r="Z11">
+        <v>1.66</v>
+      </c>
+      <c r="AA11">
+        <v>2.77</v>
+      </c>
+      <c r="AB11">
+        <v>3.66</v>
+      </c>
+      <c r="AC11">
+        <v>10.5</v>
+      </c>
+      <c r="AD11">
         <v>1.4</v>
       </c>
-      <c r="U11">
-        <v>1.32</v>
-      </c>
-      <c r="V11">
-        <v>1.58</v>
-      </c>
-      <c r="W11">
-        <v>1.8</v>
-      </c>
-      <c r="X11">
-        <v>0.8</v>
-      </c>
-      <c r="Y11">
-        <v>1.62</v>
-      </c>
-      <c r="Z11">
-        <v>1.3</v>
-      </c>
-      <c r="AA11">
-        <v>2.92</v>
-      </c>
-      <c r="AB11">
-        <v>1.76</v>
-      </c>
-      <c r="AC11">
-        <v>9.1</v>
-      </c>
-      <c r="AD11">
-        <v>2.34</v>
-      </c>
       <c r="AE11">
-        <v>1.29</v>
+        <v>1.11</v>
       </c>
       <c r="AF11">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AG11">
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="AH11">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AI11">
-        <v>2.67</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1905,102 +1908,102 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G12">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="H12">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I12">
-        <v>2.55</v>
+        <v>2.91</v>
       </c>
       <c r="J12">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="K12">
-        <v>9.800000000000001</v>
+        <v>12.75</v>
       </c>
       <c r="L12">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="M12">
-        <v>3.54</v>
+        <v>3.83</v>
       </c>
       <c r="N12">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="O12">
+        <v>1.93</v>
+      </c>
+      <c r="P12">
+        <v>1.37</v>
+      </c>
+      <c r="Q12">
+        <v>2.95</v>
+      </c>
+      <c r="R12">
+        <v>1.68</v>
+      </c>
+      <c r="S12">
+        <v>2.15</v>
+      </c>
+      <c r="T12">
+        <v>1.4</v>
+      </c>
+      <c r="U12">
+        <v>1.32</v>
+      </c>
+      <c r="V12">
+        <v>1.58</v>
+      </c>
+      <c r="W12">
         <v>2</v>
       </c>
-      <c r="P12">
-        <v>1.36</v>
-      </c>
-      <c r="Q12">
-        <v>3</v>
-      </c>
-      <c r="R12">
-        <v>1.65</v>
-      </c>
-      <c r="S12">
-        <v>2.11</v>
-      </c>
-      <c r="T12">
-        <v>1.41</v>
-      </c>
-      <c r="U12">
-        <v>1.28</v>
-      </c>
-      <c r="V12">
-        <v>1.53</v>
-      </c>
-      <c r="W12">
-        <v>0.5</v>
-      </c>
       <c r="X12">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="Y12">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="Z12">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="AA12">
-        <v>2.99</v>
+        <v>2.92</v>
       </c>
       <c r="AB12">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="AC12">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AD12">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="AE12">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AF12">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AG12">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="AH12">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="AI12">
-        <v>2.23</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2">
         <v>45082</v>
@@ -2009,105 +2012,105 @@
         <v>50</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>3.54</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W13">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>2.8</v>
+        <v>0.83</v>
       </c>
       <c r="Y13">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="Z13">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AA13">
-        <v>3.52</v>
+        <v>2.99</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="14" spans="1:35">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2">
         <v>45082</v>
@@ -2119,19 +2122,19 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="I14">
-        <v>15</v>
+        <v>10.25</v>
       </c>
       <c r="J14">
         <v>1.01</v>
@@ -2146,10 +2149,10 @@
         <v>6</v>
       </c>
       <c r="N14">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="O14">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="P14">
         <v>1.22</v>
@@ -2173,7 +2176,7 @@
         <v>4.7</v>
       </c>
       <c r="W14">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -2226,19 +2229,19 @@
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G15">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H15">
-        <v>3.2</v>
+        <v>2.87</v>
       </c>
       <c r="I15">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J15">
         <v>1.07</v>
@@ -2247,10 +2250,10 @@
         <v>6.4</v>
       </c>
       <c r="L15">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M15">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="N15">
         <v>2.56</v>
@@ -2280,10 +2283,10 @@
         <v>1.78</v>
       </c>
       <c r="W15">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="X15">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="Y15">
         <v>1.59</v>
@@ -2333,19 +2336,19 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G16">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="H16">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I16">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="J16">
         <v>1.06</v>
@@ -2360,10 +2363,10 @@
         <v>3.1</v>
       </c>
       <c r="N16">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="O16">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="P16">
         <v>1.42</v>
@@ -2440,19 +2443,19 @@
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G17">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I17">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="J17">
         <v>1.07</v>
@@ -2467,10 +2470,10 @@
         <v>3.1</v>
       </c>
       <c r="N17">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="O17">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="P17">
         <v>1.4</v>
@@ -2535,7 +2538,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2">
         <v>45082</v>
@@ -2544,105 +2547,105 @@
         <v>55</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G18">
         <v>2.15</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I18">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="J18">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="K18">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="L18">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="M18">
-        <v>2.33</v>
+        <v>3.3</v>
       </c>
       <c r="N18">
-        <v>2.69</v>
+        <v>1.9</v>
       </c>
       <c r="O18">
-        <v>1.41</v>
+        <v>1.8</v>
       </c>
       <c r="P18">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="Q18">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="R18">
-        <v>2.23</v>
+        <v>1.68</v>
       </c>
       <c r="S18">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="T18">
         <v>1.32</v>
       </c>
       <c r="U18">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="V18">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="W18">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="X18">
-        <v>0.71</v>
+        <v>1.57</v>
       </c>
       <c r="Y18">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="Z18">
-        <v>1.03</v>
+        <v>1.54</v>
       </c>
       <c r="AA18">
-        <v>2.55</v>
+        <v>3.14</v>
       </c>
       <c r="AB18">
-        <v>1.63</v>
+        <v>1.95</v>
       </c>
       <c r="AC18">
-        <v>8.800000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="AD18">
-        <v>2.73</v>
+        <v>2.1</v>
       </c>
       <c r="AE18">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AF18">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="AG18">
-        <v>2.09</v>
+        <v>2.4</v>
       </c>
       <c r="AH18">
-        <v>2.76</v>
+        <v>3.35</v>
       </c>
       <c r="AI18">
-        <v>3.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2">
         <v>45082</v>
@@ -2651,100 +2654,100 @@
         <v>56</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G19">
         <v>2.15</v>
       </c>
       <c r="H19">
-        <v>3.15</v>
+        <v>2.85</v>
       </c>
       <c r="I19">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J19">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="K19">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="L19">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="N19">
-        <v>2.12</v>
+        <v>2.6</v>
       </c>
       <c r="O19">
+        <v>1.44</v>
+      </c>
+      <c r="P19">
+        <v>1.6</v>
+      </c>
+      <c r="Q19">
+        <v>2.15</v>
+      </c>
+      <c r="R19">
+        <v>2.23</v>
+      </c>
+      <c r="S19">
+        <v>1.62</v>
+      </c>
+      <c r="T19">
+        <v>1.32</v>
+      </c>
+      <c r="U19">
+        <v>1.38</v>
+      </c>
+      <c r="V19">
+        <v>1.61</v>
+      </c>
+      <c r="W19">
+        <v>1.29</v>
+      </c>
+      <c r="X19">
+        <v>0.71</v>
+      </c>
+      <c r="Y19">
+        <v>1.52</v>
+      </c>
+      <c r="Z19">
+        <v>1.03</v>
+      </c>
+      <c r="AA19">
+        <v>2.55</v>
+      </c>
+      <c r="AB19">
+        <v>1.63</v>
+      </c>
+      <c r="AC19">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD19">
+        <v>2.73</v>
+      </c>
+      <c r="AE19">
+        <v>1.33</v>
+      </c>
+      <c r="AF19">
         <v>1.68</v>
       </c>
-      <c r="P19">
-        <v>1.44</v>
-      </c>
-      <c r="Q19">
-        <v>2.63</v>
-      </c>
-      <c r="R19">
-        <v>1.83</v>
-      </c>
-      <c r="S19">
-        <v>1.83</v>
-      </c>
-      <c r="T19">
-        <v>1.3</v>
-      </c>
-      <c r="U19">
-        <v>1.3</v>
-      </c>
-      <c r="V19">
-        <v>1.63</v>
-      </c>
-      <c r="W19">
-        <v>2</v>
-      </c>
-      <c r="X19">
-        <v>0.75</v>
-      </c>
-      <c r="Y19">
-        <v>1.2</v>
-      </c>
-      <c r="Z19">
-        <v>1.72</v>
-      </c>
-      <c r="AA19">
-        <v>2.92</v>
-      </c>
-      <c r="AB19">
-        <v>1.89</v>
-      </c>
-      <c r="AC19">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AD19">
-        <v>2.17</v>
-      </c>
-      <c r="AE19">
-        <v>1.25</v>
-      </c>
-      <c r="AF19">
-        <v>1.46</v>
-      </c>
       <c r="AG19">
-        <v>1.83</v>
+        <v>2.09</v>
       </c>
       <c r="AH19">
-        <v>2.32</v>
+        <v>2.76</v>
       </c>
       <c r="AI19">
-        <v>3.18</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2758,100 +2761,100 @@
         <v>57</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G20">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="H20">
+        <v>3.1</v>
+      </c>
+      <c r="I20">
         <v>3.25</v>
       </c>
-      <c r="I20">
-        <v>3.2</v>
-      </c>
       <c r="J20">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="K20">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="L20">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="M20">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O20">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="P20">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="Q20">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R20">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="S20">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="T20">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="U20">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="V20">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W20">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="X20">
-        <v>1.57</v>
+        <v>0.75</v>
       </c>
       <c r="Y20">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="Z20">
-        <v>1.54</v>
+        <v>1.72</v>
       </c>
       <c r="AA20">
-        <v>3.14</v>
+        <v>2.92</v>
       </c>
       <c r="AB20">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="AC20">
-        <v>7.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD20">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF20">
-        <v>1.8</v>
+        <v>1.46</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2862,49 +2865,49 @@
         <v>45082</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G21">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H21">
         <v>3.25</v>
       </c>
       <c r="I21">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="N21">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="O21">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R21">
         <v>1.8</v>
@@ -2913,13 +2916,13 @@
         <v>1.95</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W21">
         <v>0.33</v>
@@ -2937,28 +2940,28 @@
         <v>3.8</v>
       </c>
       <c r="AB21">
-        <v>2.32</v>
+        <v>2.45</v>
       </c>
       <c r="AC21">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD21">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG21">
         <v>1.83</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -2969,64 +2972,64 @@
         <v>45082</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22">
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G22">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="H22">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I22">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="N22">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O22">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W22">
         <v>1.5</v>
@@ -3059,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH22">
         <v>0</v>
@@ -3076,25 +3079,25 @@
         <v>45082</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23">
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G23">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="H23">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I23">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="J23">
         <v>1.08</v>
@@ -3109,10 +3112,10 @@
         <v>2.75</v>
       </c>
       <c r="N23">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O23">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="P23">
         <v>1.51</v>
@@ -3151,57 +3154,57 @@
         <v>3.06</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AG23">
         <v>1.93</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="24" spans="1:35">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2">
         <v>45082</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G24">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H24">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I24">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="J24">
         <v>1.06</v>
@@ -3216,7 +3219,7 @@
         <v>3.46</v>
       </c>
       <c r="N24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="O24">
         <v>1.8</v>
@@ -3290,25 +3293,25 @@
         <v>45082</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D25">
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G25">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H25">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I25">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J25">
         <v>1.02</v>
@@ -3323,10 +3326,10 @@
         <v>3.55</v>
       </c>
       <c r="N25">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O25">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P25">
         <v>1.4</v>
@@ -3397,25 +3400,25 @@
         <v>45082</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D26">
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G26">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H26">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="J26">
         <v>1.09</v>
@@ -3424,16 +3427,16 @@
         <v>6.75</v>
       </c>
       <c r="L26">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="M26">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N26">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="O26">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P26">
         <v>1.54</v>
@@ -3493,7 +3496,7 @@
         <v>2.53</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
   </sheetData>
